--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1253887.118690709</v>
+        <v>1271504.568554788</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673262</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9637936.206696467</v>
+        <v>9637936.206696466</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>168.3967303567125</v>
+        <v>143.501368827611</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015062</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>39.92287474145493</v>
+        <v>146.6876878250841</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>12.88418227763925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>100.3227933742319</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>282.7024530796002</v>
       </c>
       <c r="G5" t="n">
-        <v>105.9991700962798</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>190.2606141514331</v>
+        <v>201.9784820634094</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.4806513773115</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>17.53316602619055</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>402.4082580489724</v>
       </c>
       <c r="H8" t="n">
-        <v>186.9553186323623</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.50612826256169</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8544689997846</v>
+        <v>315.4848458704599</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.0147322147504</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.8228810500184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.0648965483574</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>73.47202467993937</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.78923362790815</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>119.1056687634342</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>306.7874773947175</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>272.8196895246595</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.5317086759478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612772</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>377.7449946201797</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610204006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.433061197385</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>225.7250450145776</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>96.32693285396974</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>187.433061197385</v>
+        <v>6.380068175847704</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2557,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>211.0785184722399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2298393743349</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>26.35809873733215</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>90.41948680756566</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>70.51113862850673</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>39.32117841962486</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>132.0538998985143</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>257.5019343756086</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>280.3582493446708</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.744699627128093</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>77.27446886463795</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>67.63321619982507</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>208.3333255363104</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.7888468243256</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>229.796569204138</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>121.0389903687753</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442824</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>228.539468364712</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>377.6405177304891</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>211.2715498627608</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>369.7165176851056</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4030,19 +4030,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>121.0107198513696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>196.2394859716227</v>
+        <v>203.6602804932574</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739748</v>
+        <v>432.425644570946</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739748</v>
+        <v>432.425644570946</v>
       </c>
       <c r="D2" t="n">
-        <v>574.0438072739748</v>
+        <v>432.425644570946</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739748</v>
+        <v>432.425644570946</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>432.425644570946</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>432.425644570946</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>432.425644570946</v>
       </c>
       <c r="X2" t="n">
-        <v>574.0438072739748</v>
+        <v>432.425644570946</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739748</v>
+        <v>432.425644570946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1014.529383903545</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="U3" t="n">
-        <v>1014.529383903545</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="V3" t="n">
-        <v>779.3772756718023</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="W3" t="n">
-        <v>779.3772756718023</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="X3" t="n">
-        <v>571.5257754662695</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.7654767013155</v>
+        <v>758.0498399683654</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.0607779425552</v>
+        <v>666.4200205862963</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1245950146483</v>
+        <v>497.4838376583895</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>497.4838376583895</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>349.5707440759963</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>202.680796578086</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>34.11143593308944</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>34.11143593308944</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>34.11143593308944</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4500,10 +4500,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640391</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="V4" t="n">
-        <v>728.0503288405725</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="W4" t="n">
-        <v>728.0503288405725</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="X4" t="n">
-        <v>500.0607779425552</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.0607779425552</v>
+        <v>848.0684854165361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1306.671979503742</v>
+        <v>331.829374751642</v>
       </c>
       <c r="C5" t="n">
-        <v>937.7094625633301</v>
+        <v>331.829374751642</v>
       </c>
       <c r="D5" t="n">
-        <v>937.7094625633301</v>
+        <v>331.829374751642</v>
       </c>
       <c r="E5" t="n">
-        <v>551.9212099650858</v>
+        <v>331.829374751642</v>
       </c>
       <c r="F5" t="n">
-        <v>140.9353051754783</v>
+        <v>46.27134133790435</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780275</v>
+        <v>108.4604468780277</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818687</v>
+        <v>270.997549081869</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373976</v>
+        <v>509.5409587373978</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176468</v>
+        <v>806.6359018176473</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058967</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836694</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921685</v>
+        <v>1590.394365921687</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567864</v>
+        <v>1439.631434135146</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567864</v>
+        <v>1108.568546791575</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.271819567864</v>
+        <v>1108.568546791575</v>
       </c>
       <c r="X5" t="n">
-        <v>1693.271819567864</v>
+        <v>1108.568546791575</v>
       </c>
       <c r="Y5" t="n">
-        <v>1693.271819567864</v>
+        <v>718.4292148157638</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.0248883123061</v>
+        <v>651.1886580981907</v>
       </c>
       <c r="C6" t="n">
-        <v>488.5718590311791</v>
+        <v>476.7356288170636</v>
       </c>
       <c r="D6" t="n">
-        <v>339.6374493699278</v>
+        <v>476.7356288170636</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644723</v>
+        <v>317.4981738116081</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135727</v>
+        <v>170.9636158384931</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324427</v>
+        <v>59.4758666532444</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650493</v>
+        <v>443.2235805075024</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877841</v>
+        <v>653.4921936302374</v>
       </c>
       <c r="M6" t="n">
-        <v>795.8440284258988</v>
+        <v>918.2226155869785</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768945</v>
+        <v>1204.368308998706</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943142</v>
+        <v>1443.915920172904</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557611</v>
+        <v>1627.401425557613</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232577</v>
+        <v>1693.078019232579</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="V6" t="n">
-        <v>1501.089381031062</v>
+        <v>1489.253150816947</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.852024302861</v>
+        <v>1235.015794088745</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.000524097328</v>
+        <v>1027.164293883213</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.2402253323742</v>
+        <v>819.4039951182588</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.8016193192642</v>
+        <v>647.7212998119035</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135727</v>
+        <v>478.7851168839966</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135727</v>
+        <v>328.6684774716608</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135727</v>
+        <v>180.7553838892677</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135727</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652185</v>
+        <v>36.28512133652195</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128596</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119584</v>
+        <v>396.8594047119587</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191533</v>
+        <v>646.3363778191538</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361648</v>
+        <v>895.3159625361653</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.27261202138</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580466</v>
@@ -4761,16 +4761,16 @@
         <v>1295.862163397014</v>
       </c>
       <c r="V7" t="n">
-        <v>1122.649384228012</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="W7" t="n">
-        <v>833.2322141910513</v>
+        <v>1278.151894683691</v>
       </c>
       <c r="X7" t="n">
-        <v>605.242663293034</v>
+        <v>1050.162343785673</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.4500841495039</v>
+        <v>829.3697646421432</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="C8" t="n">
-        <v>1114.902695549579</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="D8" t="n">
-        <v>1114.902695549579</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="E8" t="n">
-        <v>729.1144429513347</v>
+        <v>1239.138472452407</v>
       </c>
       <c r="F8" t="n">
-        <v>318.1285381617271</v>
+        <v>828.1525676627994</v>
       </c>
       <c r="G8" t="n">
-        <v>306.4641919264201</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1624.926725050651</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938516</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1845.410930903096</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C11" t="n">
-        <v>1476.448413962684</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="D11" t="n">
-        <v>1476.448413962684</v>
+        <v>1253.238931622639</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139988</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X11" t="n">
-        <v>2235.550262878908</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.410930903096</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.3097953702099</v>
+        <v>906.9191734699996</v>
       </c>
       <c r="C13" t="n">
-        <v>170.373612442303</v>
+        <v>906.9191734699996</v>
       </c>
       <c r="D13" t="n">
-        <v>170.373612442303</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>170.373612442303</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>1259.157560278958</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W13" t="n">
-        <v>969.7403902419971</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X13" t="n">
-        <v>741.7508393439798</v>
+        <v>906.9191734699996</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.9582602004497</v>
+        <v>906.9191734699996</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>934.5673701373257</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C14" t="n">
-        <v>934.5673701373257</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>934.5673701373257</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2681.592762450952</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2328.824107180837</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>1955.358348919757</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>1565.219016943946</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826.5851666348717</v>
+        <v>333.710820256795</v>
       </c>
       <c r="C16" t="n">
-        <v>657.6489837069648</v>
+        <v>333.710820256795</v>
       </c>
       <c r="D16" t="n">
-        <v>507.5323442946291</v>
+        <v>333.710820256795</v>
       </c>
       <c r="E16" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5469,19 +5469,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U16" t="n">
-        <v>1615.697475415547</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V16" t="n">
-        <v>1361.01298720966</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.01298720966</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.023436311642</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.2308571681123</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1501.213961756484</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C17" t="n">
-        <v>1501.213961756484</v>
+        <v>1535.524858594927</v>
       </c>
       <c r="D17" t="n">
-        <v>1142.948263149734</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E17" t="n">
-        <v>757.1600105514894</v>
+        <v>791.4709073899319</v>
       </c>
       <c r="F17" t="n">
-        <v>757.1600105514894</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0875603964859</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5515,16 +5515,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5539,13 +5539,13 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U17" t="n">
         <v>2961.784676410103</v>
@@ -5557,10 +5557,10 @@
         <v>2277.953133796418</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.953133796418</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y17" t="n">
-        <v>1887.813801820606</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218343</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.59460854119</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W19" t="n">
-        <v>1037.177438504229</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X19" t="n">
-        <v>809.1878876062121</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.3679798527295</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796256</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C20" t="n">
-        <v>552.807938939214</v>
+        <v>806.3384156653781</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324635</v>
+        <v>448.0727170586276</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>448.0727170586276</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>448.0727170586276</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218342</v>
@@ -5752,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5785,19 +5785,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1737.96822364669</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1516.201608216216</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1227.09874134186</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>972.4142531359726</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>682.9970830990119</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>455.0075322009945</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2047.583838282732</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>1120.575567351115</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>709.5896625615078</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>294.5172124065043</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792695</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.483610522581</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X23" t="n">
-        <v>2434.183678346854</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y23" t="n">
-        <v>2434.183678346854</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.2149530574645</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1737.96822364669</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.201608216216</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U25" t="n">
-        <v>1227.09874134186</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V25" t="n">
-        <v>972.4142531359726</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W25" t="n">
-        <v>682.9970830990119</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X25" t="n">
-        <v>455.0075322009945</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.2149530574645</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.569348694473</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.569348694473</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>746.4631922178282</v>
       </c>
       <c r="F26" t="n">
         <v>481.5845665871869</v>
@@ -6226,25 +6226,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052369</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734407</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.169188758595</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.1023745137405</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C28" t="n">
-        <v>391.1661915858336</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D28" t="n">
-        <v>241.0495521734979</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>93.1364585911048</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
         <v>66.51211643218343</v>
@@ -6417,19 +6417,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.157560278958</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>969.7403902419976</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>741.7508393439803</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.7508393439803</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939214</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>552.807938939214</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>552.807938939214</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>552.807938939214</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>137.7354887842104</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6463,10 +6463,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6475,7 +6475,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="30">
@@ -6533,10 +6533,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
@@ -6545,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.0642295677645</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C31" t="n">
-        <v>382.1280466398576</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D31" t="n">
-        <v>382.1280466398576</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218342</v>
@@ -6621,16 +6621,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1793.906770413226</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1504.803903538869</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V31" t="n">
-        <v>1250.119415332982</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W31" t="n">
-        <v>960.7022452960216</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X31" t="n">
-        <v>732.7126943980043</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y31" t="n">
-        <v>732.7126943980043</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.597933493125</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.635416552713</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="D32" t="n">
-        <v>909.3697179459625</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>523.5814653477182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V32" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W32" t="n">
-        <v>2786.802863794138</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X32" t="n">
-        <v>2413.337105533058</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y32" t="n">
-        <v>2023.197773557246</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.8377936138381</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C34" t="n">
-        <v>163.8377936138381</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D34" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E34" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1849.239529033303</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1627.472913602829</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1338.370046728473</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V34" t="n">
-        <v>1083.685558522586</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W34" t="n">
-        <v>794.2683884856252</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X34" t="n">
-        <v>566.2788375876079</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y34" t="n">
-        <v>345.4862584440777</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1544.306735920717</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1175.344218980305</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>817.078520373555</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
         <v>406.0926155839475</v>
@@ -6937,19 +6937,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792695</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.48361052258</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X35" t="n">
-        <v>2321.045907960651</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y35" t="n">
-        <v>1930.906575984839</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7019,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7095,16 +7095,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>1513.842048484845</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>1259.157560278958</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.157560278958</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>1031.168009380941</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>810.3754302374108</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038044</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097632</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.404020490882</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926375</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030299</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>298.6298631030299</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339057</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077977</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102166</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T40" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U40" t="n">
-        <v>1645.778206672847</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>1645.778206672847</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>1645.778206672847</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>900.9499883969577</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>900.9499883969577</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>489.9640836073501</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758594</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1854.900232967364</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1854.900232967364</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1854.900232967364</v>
+        <v>1300.436442562865</v>
       </c>
       <c r="V43" t="n">
-        <v>1600.215744761477</v>
+        <v>1045.751954356978</v>
       </c>
       <c r="W43" t="n">
-        <v>1310.798574724517</v>
+        <v>756.3347843200171</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.809023826499</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>528.3452334219998</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7669,7 +7669,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.252265792695</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W44" t="n">
-        <v>2531.483610522581</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.250560167662</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>332.773976541745</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C46" t="n">
-        <v>163.8377936138381</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7839,19 +7839,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1507.30622965638</v>
+        <v>1499.810477614325</v>
       </c>
       <c r="V46" t="n">
-        <v>1252.621741450493</v>
+        <v>1245.125989408438</v>
       </c>
       <c r="W46" t="n">
-        <v>963.2045714135322</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="X46" t="n">
-        <v>735.2150205155149</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y46" t="n">
-        <v>514.4224413719847</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
   </sheetData>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157962</v>
+        <v>25.82445471157951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>140.8505025064383</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>134.2819009407258</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10.66716643458611</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>255.8421700460954</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>140.0759010724772</v>
+        <v>66.44552420180185</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.60074080346195</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42.59816697291284</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.66894511512317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>254.2802337901956</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.04274655402915</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.32829388313493</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>100.088568346994</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>21.78807486266101</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.05294467614698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>33.17673103327377</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>147.7570121569882</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>2.335964134056866</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>68.88271937274283</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>273.4041678244993</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>2.335964134056866</v>
+        <v>183.3889571555942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>143.6045231484431</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>144.6462063673766</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.0629492855991</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>128.1651665445291</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>224.0966257588137</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>330.4099222588442</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>87.49504937765488</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>29.02106396098242</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>74.3247922760122</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>347.4962690902849</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>112.4945564668039</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>150.9514371522697</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>161.3977751421587</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.04313335761165</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>64.81119518318249</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>228.2019783486377</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.1943732987686</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>33.28120792296437</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.26178070013006</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>74.94028834285209</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>12.21385238715618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>248.7203808270995</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>89.97235223399022</v>
+        <v>82.55155771235547</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792222.5991782778</v>
+        <v>792222.599178278</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792222.5991782779</v>
+        <v>792222.599178278</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792222.599178278</v>
+        <v>792222.5991782779</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792222.5991782779</v>
+        <v>792222.599178278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792222.5991782781</v>
+        <v>792222.5991782778</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792222.5991782778</v>
+        <v>792222.5991782779</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792222.5991782778</v>
+        <v>792222.5991782779</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792222.599178278</v>
+        <v>792222.5991782777</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792222.5991782779</v>
+        <v>792222.599178278</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.0619185703</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="G2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="J2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.518765105</v>
       </c>
       <c r="L2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.518765105</v>
       </c>
       <c r="N2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651046</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.624173949</v>
+        <v>176672.6241739496</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819083</v>
+        <v>223886.309381908</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911417</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640775</v>
+        <v>41076.9815464079</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946845</v>
+        <v>54988.29121946832</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>199645.5971079032</v>
+        <v>199645.597107903</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066862</v>
+        <v>8550.515172066847</v>
       </c>
       <c r="F4" t="n">
         <v>8550.515172066862</v>
@@ -26453,7 +26453,7 @@
         <v>8550.515172066862</v>
       </c>
       <c r="N4" t="n">
-        <v>8550.515172066862</v>
+        <v>8550.515172066873</v>
       </c>
       <c r="O4" t="n">
         <v>8550.515172066862</v>
@@ -26472,25 +26472,25 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923107</v>
+        <v>75746.87167923112</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26505,10 +26505,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-498159.2889192781</v>
       </c>
       <c r="C6" t="n">
-        <v>40559.96895748669</v>
+        <v>40559.96895748615</v>
       </c>
       <c r="D6" t="n">
-        <v>40278.84311983391</v>
+        <v>40278.84311983411</v>
       </c>
       <c r="E6" t="n">
-        <v>140790.4939163933</v>
+        <v>143919.064284648</v>
       </c>
       <c r="F6" t="n">
-        <v>322863.4737335835</v>
+        <v>325992.0441018387</v>
       </c>
       <c r="G6" t="n">
-        <v>322863.4737335835</v>
+        <v>325992.0441018385</v>
       </c>
       <c r="H6" t="n">
-        <v>322863.4737335835</v>
+        <v>325992.0441018386</v>
       </c>
       <c r="I6" t="n">
-        <v>322863.4737335836</v>
+        <v>325992.0441018388</v>
       </c>
       <c r="J6" t="n">
-        <v>253864.3193144695</v>
+        <v>256992.8896827244</v>
       </c>
       <c r="K6" t="n">
-        <v>281786.4921871758</v>
+        <v>284915.0625554308</v>
       </c>
       <c r="L6" t="n">
-        <v>267875.1825141152</v>
+        <v>271003.7528823703</v>
       </c>
       <c r="M6" t="n">
-        <v>275311.2079401688</v>
+        <v>278439.7783084239</v>
       </c>
       <c r="N6" t="n">
-        <v>322863.4737335835</v>
+        <v>325992.0441018385</v>
       </c>
       <c r="O6" t="n">
-        <v>322863.4737335836</v>
+        <v>325992.0441018383</v>
       </c>
       <c r="P6" t="n">
-        <v>322863.4737335836</v>
+        <v>325992.0441018386</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908054</v>
+        <v>751.4467899908059</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,25 +26792,25 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919659</v>
+        <v>423.3179548919664</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26962,16 +26962,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213271</v>
+        <v>137.3917762213275</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267338</v>
+        <v>182.6181021267336</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.6040748904602</v>
       </c>
       <c r="D4" t="n">
-        <v>217.266877208073</v>
+        <v>217.2668772080727</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022538</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904594</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080732</v>
+        <v>217.2668772080727</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.6040748904602</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208073</v>
+        <v>217.2668772080727</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022538</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>238.4793153849989</v>
+        <v>263.3746769141004</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442038</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>154.9181128434219</v>
+        <v>48.15329975979273</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.188016821242828</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>151.8148499495961</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>124.1735926621112</v>
       </c>
       <c r="G5" t="n">
-        <v>306.2826758008018</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539875</v>
+        <v>94.01296546539868</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253652</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813373</v>
+        <v>33.74703566813369</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>42.53997299799218</v>
+        <v>30.82210508601591</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
@@ -27794,7 +27794,7 @@
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>80.65699194651646</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>268.9898323104005</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>9.139444723981626</v>
       </c>
       <c r="H8" t="n">
-        <v>114.0632339300431</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.6315150612663</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053487</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339028</v>
+        <v>30.9377062833903</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677674</v>
+        <v>256.3943999677675</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599715</v>
+        <v>384.2687421599718</v>
       </c>
       <c r="L5" t="n">
-        <v>476.719354015976</v>
+        <v>476.7193540159763</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285347</v>
+        <v>530.4421353285351</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383292</v>
+        <v>539.0252436383296</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113099</v>
+        <v>508.9862526113101</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906143</v>
+        <v>434.4079907906146</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190737</v>
+        <v>326.2223097190739</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025525</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639391</v>
+        <v>68.83856774639395</v>
       </c>
       <c r="T5" t="n">
         <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442789</v>
+        <v>0.241671329444279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546261</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395994</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328135</v>
+        <v>55.64959718328139</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433202</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499197</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.946918287687</v>
+        <v>350.9469182876873</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449889</v>
+        <v>409.5385005449892</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345733</v>
+        <v>420.3777660345736</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587851</v>
+        <v>384.5635284587854</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077329</v>
+        <v>308.6461353077331</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970982</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633075</v>
+        <v>30.02242599633076</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807075</v>
+        <v>6.514901886807078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952472</v>
+        <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720631</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390972</v>
+        <v>95.80330632390978</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029916</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165514</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706796</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379547</v>
+        <v>207.3623576379548</v>
       </c>
       <c r="O7" t="n">
-        <v>191.532699848804</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.889313017011</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843479</v>
+        <v>60.92878398843483</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544874</v>
+        <v>23.61513928544876</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879974</v>
+        <v>5.789835922879978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548914</v>
+        <v>0.07391279901548918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108107</v>
+        <v>75.34849544108124</v>
       </c>
       <c r="K5" t="n">
-        <v>164.178891114991</v>
+        <v>164.1788911149912</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459888</v>
+        <v>240.9529390459891</v>
       </c>
       <c r="M5" t="n">
-        <v>300.095902101262</v>
+        <v>300.0959021012624</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417383</v>
+        <v>309.6121800417387</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896231</v>
+        <v>278.8880411896234</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353448</v>
+        <v>203.174995035345</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446243</v>
+        <v>103.9166198446244</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665353</v>
+        <v>25.86912147665362</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755607</v>
+        <v>387.6239533881395</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078128</v>
+        <v>212.3925385078131</v>
       </c>
       <c r="M6" t="n">
-        <v>408.2549691294089</v>
+        <v>267.4044666229709</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3179548919659</v>
+        <v>289.0360539512403</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143407</v>
+        <v>241.9672840143409</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934027</v>
+        <v>185.338894327989</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107664</v>
+        <v>66.33999361107675</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144308852</v>
+        <v>0.195757914430942</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236948</v>
+        <v>2.444126207237005</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771088</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768675</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325202</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171833</v>
+        <v>251.4945300171834</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628437</v>
+        <v>216.1178277628438</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819045</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691723</v>
+        <v>27.3064220369173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>591.2668520422184</v>
+        <v>497.4319917882571</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35275,7 +35275,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
